--- a/BalanceSheet/PSX_bal.xlsx
+++ b/BalanceSheet/PSX_bal.xlsx
@@ -74,7 +74,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" width="26.400000000000002"/>
-    <col min="2" max="2" bestFit="1" customWidth="1" width="12.100000000000001"/>
+    <col min="2" max="2" bestFit="1" customWidth="1" width="16.5"/>
     <col min="3" max="3" bestFit="1" customWidth="1" width="16.5"/>
     <col min="4" max="4" bestFit="1" customWidth="1" width="16.5"/>
     <col min="5" max="5" bestFit="1" customWidth="1" width="16.5"/>
@@ -249,10 +249,8 @@
           <t>Cash and Short Term Investments</t>
         </is>
       </c>
-      <c r="B2" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B2" s="0" t="n">
+        <v>1351000000.0</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>2514000000.0</v>
@@ -384,10 +382,8 @@
           <t>Receivables</t>
         </is>
       </c>
-      <c r="B3" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B3" s="0" t="n">
+        <v>8165000000.0</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>6522000000.0</v>
@@ -517,10 +513,8 @@
           <t>Inventory</t>
         </is>
       </c>
-      <c r="B4" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B4" s="0" t="n">
+        <v>4273000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>4956000000.0</v>
@@ -847,10 +841,8 @@
           <t>Total current assets</t>
         </is>
       </c>
-      <c r="B6" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B6" s="0" t="n">
+        <v>14418000000.0</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>13276000000.0</v>
@@ -980,10 +972,8 @@
           <t>Property, Plant, Equpment (Net)</t>
         </is>
       </c>
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B7" s="0" t="n">
+        <v>23677000000.0</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>24927000000.0</v>
@@ -1113,10 +1103,8 @@
           <t>Long-Term Investments</t>
         </is>
       </c>
-      <c r="B8" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B8" s="0" t="n">
+        <v>13376000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>13183000000.0</v>
@@ -1246,10 +1234,8 @@
           <t>Goodwill and Intangible Assets (Total)</t>
         </is>
       </c>
-      <c r="B9" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B9" s="0" t="n">
+        <v>2261000000.0</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>2268000000.0</v>
@@ -1375,10 +1361,8 @@
           <t>Long-term assets (Other)</t>
         </is>
       </c>
-      <c r="B10" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B10" s="0" t="n">
+        <v>1764000000.0</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>625000000.0</v>
@@ -1508,10 +1492,8 @@
           <t>Total non-current assets</t>
         </is>
       </c>
-      <c r="B11" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B11" s="0" t="n">
+        <v>41078000000.0</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>41445000000.0</v>
@@ -1642,7 +1624,7 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
-        <v>0.0</v>
+        <v>55496000000.0</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>54721000000.0</v>
@@ -1768,10 +1750,8 @@
           <t>Accounts Payable</t>
         </is>
       </c>
-      <c r="B13" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B13" s="0" t="n">
+        <v>8246000000.0</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>5647000000.0</v>
@@ -1901,10 +1881,8 @@
           <t>Accrued Expenses</t>
         </is>
       </c>
-      <c r="B14" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B14" s="0" t="n">
+        <v>1149000000.0</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>1351000000.0</v>
@@ -2034,10 +2012,8 @@
           <t>Current Part of Debt</t>
         </is>
       </c>
-      <c r="B15" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B15" s="0" t="n">
+        <v>516000000.0</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>1356000000.0</v>
@@ -2573,10 +2549,8 @@
           <t>Other current liabilities</t>
         </is>
       </c>
-      <c r="B18" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B18" s="0" t="n">
+        <v>1520000000.0</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>1262000000.0</v>
@@ -2706,10 +2680,8 @@
           <t>Total current liabilities</t>
         </is>
       </c>
-      <c r="B19" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B19" s="0" t="n">
+        <v>11431000000.0</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>9518000000.0</v>
@@ -2839,10 +2811,8 @@
           <t>Long Term Debt (Total)</t>
         </is>
       </c>
-      <c r="B20" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B20" s="0" t="n">
+        <v>14906000000.0</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>15759000000.0</v>
@@ -3175,10 +3145,8 @@
           <t>Pension and Post-Retirement Liabilities</t>
         </is>
       </c>
-      <c r="B22" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B22" s="0" t="n">
+        <v>1351000000.0</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>1341000000.0</v>
@@ -3308,10 +3276,8 @@
           <t>Long Term Tax Liability (Deferred)</t>
         </is>
       </c>
-      <c r="B23" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B23" s="0" t="n">
+        <v>5547000000.0</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>5768000000.0</v>
@@ -3644,10 +3610,8 @@
           <t>Non-current Liabilities (Other)</t>
         </is>
       </c>
-      <c r="B25" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B25" s="0" t="n">
+        <v>1804000000.0</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>2277000000.0</v>
@@ -3777,10 +3741,8 @@
           <t>Total non-current liabilities</t>
         </is>
       </c>
-      <c r="B26" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B26" s="0" t="n">
+        <v>23608000000.0</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>23680000000.0</v>
@@ -3910,10 +3872,8 @@
           <t>Total liabilities</t>
         </is>
       </c>
-      <c r="B27" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B27" s="0" t="n">
+        <v>35039000000.0</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>33198000000.0</v>
@@ -4039,10 +3999,8 @@
           <t>Additional Paid In Capital</t>
         </is>
       </c>
-      <c r="B28" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B28" s="0" t="n">
+        <v>20420000000.0</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>20383000000.0</v>
@@ -4375,10 +4333,8 @@
           <t>Common Stock (Net)</t>
         </is>
       </c>
-      <c r="B30" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B30" s="0" t="n">
+        <v>6000000.0</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>6000000.0</v>
@@ -4508,10 +4464,8 @@
           <t>Retained Earnings</t>
         </is>
       </c>
-      <c r="B31" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B31" s="0" t="n">
+        <v>15449000000.0</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>16500000000.0</v>
@@ -4848,10 +4802,8 @@
           <t>Treasury Stock</t>
         </is>
       </c>
-      <c r="B33" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B33" s="0" t="n">
+        <v>17116000000.0</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>17116000000.0</v>
@@ -5186,10 +5138,8 @@
           <t>Common Equity (Total)</t>
         </is>
       </c>
-      <c r="B35" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B35" s="0" t="n">
+        <v>20457000000.0</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>18984000000.0</v>
@@ -5319,10 +5269,8 @@
           <t>Shareholders Equity (Total)</t>
         </is>
       </c>
-      <c r="B36" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B36" s="0" t="n">
+        <v>20457000000.0</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>18984000000.0</v>
@@ -5448,10 +5396,8 @@
           <t>Shareholders Equity and Liabilities (Total)</t>
         </is>
       </c>
-      <c r="B37" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B37" s="0" t="n">
+        <v>55496000000.0</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>54721000000.0</v>
@@ -5577,10 +5523,8 @@
           <t>Shares (Common)</t>
         </is>
       </c>
-      <c r="B38" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B38" s="0" t="n">
+        <v>437867000.0</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>436871000.0</v>
@@ -5714,10 +5658,8 @@
           <t>Shareholders Equity (Tangible)</t>
         </is>
       </c>
-      <c r="B39" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B39" s="0" t="n">
+        <v>18196000000.0</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>19255000000.0</v>
